--- a/SALT/Zmethod_KCl.xlsx
+++ b/SALT/Zmethod_KCl.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A90C4-184A-7E42-81AB-263F788E080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9406AAB0-5C9B-A548-86B9-609F29C15E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{1EE85455-D6AE-CE4B-A661-0E200316AAC3}"/>
+    <workbookView xWindow="3020" yWindow="4140" windowWidth="27240" windowHeight="16440" xr2:uid="{1EE85455-D6AE-CE4B-A661-0E200316AAC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>POTIM=4.0</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>phase</t>
-  </si>
-  <si>
-    <t>solid</t>
   </si>
   <si>
     <t>E</t>
@@ -420,7 +418,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,15 +462,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,7 +478,108 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>20.81</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-568.56617000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+      <c r="C21">
+        <v>23.91</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-567.3356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB8FE3-3F77-4544-8095-4DD10FE5CD14}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
